--- a/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2008 (PWPN).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2008 (PWPN).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,63 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sprouting Thrinax</t>
+          <t>('Sprouting Thrinax', ['{B}{R}{G}', 'Creature — Lizard', 'When Sprouting Thrinax dies, create three 1/1 green Saproling creature tokens.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{B}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Lizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>When Sprouting Thrinax dies, create three 1/1 green Saproling creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Woolly Thoctar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{R}{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5/4</t>
+          <t>('Woolly Thoctar', ['{R}{G}{W}', 'Creature — Beast', '5/4'])</t>
         </is>
       </c>
     </row>
